--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 19,44</t>
+          <t>-10,84; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 18,49</t>
+          <t>-12,94; 17,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 35,18</t>
+          <t>-15,66; 29,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 47,85</t>
+          <t>-23,62; 44,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 18,57</t>
+          <t>1,93; 25,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 0,9</t>
+          <t>-42,28; 0,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 30,42</t>
+          <t>2,97; 47,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,46; 1,54</t>
+          <t>-62,97; 0,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 10,42</t>
+          <t>-7,26; 7,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 10,37</t>
+          <t>-5,46; 9,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 14,16</t>
+          <t>-8,6; 9,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 18,86</t>
+          <t>-8,29; 16,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 11,69</t>
+          <t>-4,1; 7,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 53,66</t>
+          <t>1,36; 57,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 15,42</t>
+          <t>-4,76; 9,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 374,21</t>
+          <t>2,18; 482,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 10,03</t>
+          <t>-1,74; 10,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 8,09</t>
+          <t>-4,45; 7,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 13,52</t>
+          <t>-2,12; 14,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 12,34</t>
+          <t>-6,05; 11,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,76</t>
+          <t>2,4; 17,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 3,87</t>
+          <t>-9,76; 4,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 24,06</t>
+          <t>3,28; 27,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 6,08</t>
+          <t>-13,34; 6,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 10,51</t>
+          <t>-5,3; 8,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 6,48</t>
+          <t>-7,58; 6,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 14,82</t>
+          <t>-6,68; 12,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 9,26</t>
+          <t>-9,54; 9,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,48</t>
+          <t>1,54; 7,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 24,86</t>
+          <t>-2,45; 25,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,71</t>
+          <t>2,06; 10,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 65,63</t>
+          <t>-3,94; 63,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>4,01</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,25%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,99%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-10,82; 18,46</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 8,34</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-10,84; 17,06</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,94; 17,31</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,0; 8,34</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-19,31; 45,56</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 14,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-15,66; 29,75</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-23,62; 44,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-13,93; 14,82</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-3,24</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>13,98</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-15,76</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>22,56%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-26,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-13,4; 7,55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-10,18; 7,27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,93; 25,63</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-42,28; 0,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 7,27</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-19,87; 13,23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 12,39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>2,97; 47,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-62,97; 0,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-14,87; 12,39</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,38%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,62; 7,46</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 7,89</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-7,26; 7,42</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,46; 9,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 7,89</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-9,82; 12,57</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-9,32; 13,29</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-8,6; 9,74</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 16,7</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 13,29</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,74</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>27,76</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,1%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>73,91%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-4,45; 8,14</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 6,35</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-4,1; 7,37</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 57,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 6,35</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-6,56; 13,66</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-9,39; 10,59</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-4,76; 9,14</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 482,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 10,59</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4,56</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>5,76%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,92%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-3,93; 7,69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 7,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,74; 10,86</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 7,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 7,23</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-5,26; 11,44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-10,59; 12,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-2,12; 14,26</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 11,61</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 12,46</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>9,86</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,9</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-3,74%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-3,55%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>14,62%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-4,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-3,55%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-9,4; 4,31</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 3,81</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>2,4; 17,55</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,76; 4,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 3,81</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-12,98; 6,74</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 6,22</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>3,28; 27,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-13,34; 6,29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-12,89; 6,22</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,48</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>1,95%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,3%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-7,25; 6,49</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 8,4</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-5,3; 8,95</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 6,34</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 8,4</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-9,19; 9,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 15,03</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-6,68; 12,38</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-9,54; 9,12</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 15,03</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>4,57</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>6,12%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>12,16%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-2,31; 3,82</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 2,76</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,54; 7,55</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 25,02</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 2,76</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-3,47; 6,08</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 4,57</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>2,06; 10,41</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 63,72</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 4,57</t>
         </is>
       </c>
     </row>
